--- a/Redesign/IO/OUTPUT/6-Evergreen Ornaments-2.xlsx
+++ b/Redesign/IO/OUTPUT/6-Evergreen Ornaments-2.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,17 +517,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Evergreen Ornaments</t>
+          <t>007184</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -542,8 +542,11 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>09/23/24</t>
-        </is>
+          <t>09/30/24</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -577,17 +580,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>029</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Evergreen Ornaments</t>
+          <t>007184</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -602,8 +605,74 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>09/23/24</t>
-        </is>
+          <t>09/30/24</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>191386811264</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>65M27 DOG</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ORN-E Pewter Dog</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>029</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>029</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>007184</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>65M27 DOG</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>09/30/24</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
